--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W15_H50_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W15_H50_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7104247104247104</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4520958083832335</v>
+        <v>0.4910179640718563</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.09830549031734787</v>
+        <v>0.08869085668638682</v>
       </c>
       <c r="J2" t="n">
-        <v>1257.067286835397</v>
+        <v>1158.958811783362</v>
       </c>
       <c r="K2" t="n">
-        <v>2095605.830335064</v>
+        <v>1818475.893375212</v>
       </c>
       <c r="L2" t="n">
-        <v>1447.620748101886</v>
+        <v>1348.508766517746</v>
       </c>
       <c r="M2" t="n">
-        <v>0.611396872262467</v>
+        <v>0.6627870520058994</v>
       </c>
     </row>
   </sheetData>
